--- a/docs/ST4/ST4_08.11.2024_output.xlsx
+++ b/docs/ST4/ST4_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,630 +505,745 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731441964.6248467</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731441965.424349</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441964.6248467.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441965.424349.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7123</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7103</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-20</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731441966.3873885</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731441966.7363367</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441966.3873885.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441966.7363367.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7087.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7095.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731441967.3331614</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731441969.0657523</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441967.3331614.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441969.0657523.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7076</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7112.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>36.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731441972.326023</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731441972.6864479</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441972.326023.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441972.6864479.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7091</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7098</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731441981.932521</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731441982.4742842</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441981.932521.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441982.4742842.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7078.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7083.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731441982.956789</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731441983.413971</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441982.956789.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441983.413971.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7066</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7075.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731441992.4423232</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731441993.5839584</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441992.4423232.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441993.5839584.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>474.95</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>474</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731441997.6157603</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731441997.8640668</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441997.6157603.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441997.8640668.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>473</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>473.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731442005.3663907</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731442007.2221017</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442005.3663907.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442007.2221017.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>475.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>476.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.9000000000000341</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731442013.9638104</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731442014.7996619</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442013.9638104.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442014.7996619.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>933.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>932.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731442017.3521447</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731442018.3654344</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442017.3521447.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442018.3654344.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>926.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>928.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731442024.2867799</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731442025.7941442</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442024.2867799.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442025.7941442.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>933.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>933.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,1944 +1251,2304 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731442028.753694</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731442029.5470183</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442028.753694.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442029.5470183.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>934.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>933.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731442039.090094</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731442040.7058935</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442039.090094.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442040.7058935.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>129.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731442045.838855</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731442046.6605926</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442045.838855.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442046.6605926.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>129.24</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>129.46</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731442048.9747145</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731442049.3057208</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442048.9747145.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442049.3057208.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>130.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>130.1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731442055.0422668</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731442055.719812</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442055.0422668.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442055.719812.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.36</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>130.14</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731442064.063748</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731442064.5775287</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442064.063748.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442064.5775287.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>37.725</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>37.775</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731442067.0854828</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731442067.6575453</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442067.0854828.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442067.6575453.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>37.71</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>37.745</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731442077.549955</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731442077.9078417</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442077.549955.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442077.9078417.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>38.09</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>38.03</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731442078.199591</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731442079.3400347</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442078.199591.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442079.3400347.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>38.095</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>38.1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731442087.2197473</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731442087.2775233</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442087.2197473.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442087.2775233.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1190</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1186.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731442102.06938</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731442102.2364314</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442102.06938.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442102.2364314.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1190.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1189.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731442102.8658125</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731442103.3474803</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442102.8658125.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442103.3474803.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1191</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1190.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731442104.721416</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731442106.420477</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442104.721416.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442106.420477.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1191</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1187.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731442108.0146472</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731442108.0146472.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731442108.0146472.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1190.6</v>
       </c>
-      <c r="J28" t="n">
-        <v>1190.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>1190.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731442113.927335</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731442114.4078982</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442113.927335.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442114.4078982.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>78.42</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>78.41</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731442133.3866787</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731442133.6918476</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442133.3866787.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442133.6918476.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>103.21</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>103.29</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731442135.0941079</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731442135.1841383</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442135.0941079.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442135.1841383.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>103.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>103.3</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731442136.497205</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731442137.0026758</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442136.497205.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442137.0026758.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>103</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>103.06</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731442138.2664661</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731442140.1894164</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442138.2664661.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442140.1894164.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>102.77</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>102.46</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731442144.9948092</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731442145.8664823</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442144.9948092.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442145.8664823.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>102.35</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>102.57</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731442152.3974235</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731442152.9066207</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442152.3974235.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442152.9066207.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>103.36</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>103.07</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2900000000000063</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731442161.2252378</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731442161.6529202</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442161.2252378.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442161.6529202.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>2751.65</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>2753.75</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.099999999999909</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731442162.7521589</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731442167.5951219</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442162.7521589.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442167.5951219.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>2746.65</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-2.949999999999818</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731442170.1468644</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731442170.9165273</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442170.1468644.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442170.9165273.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>2740.05</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>2744.75</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>4.699999999999818</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731442172.8493073</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731442173.1419399</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442172.8493073.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442173.1419399.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>2756.7</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>2752.35</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>4.349999999999909</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731442177.1917176</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731442178.0865972</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442177.1917176.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442178.0865972.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>2754.05</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>2749.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>4.450000000000273</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731442179.0396705</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731442180.0268703</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442179.0396705.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442180.0268703.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>2753.75</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>2747.75</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>6</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731442181.813893</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731442182.149753</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442181.813893.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442182.149753.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>2740.35</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>2740.55</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2000000000002728</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731442194.7148201</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731442195.1258698</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/APTK1731442194.7148201.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/APTK1731442195.1258698.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>10.824</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>10.842</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.01800000000000068</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731442210.8333623</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731442211.841093</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442210.8333623.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442211.841093.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>480.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>480.3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731442213.4698665</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731442214.3171635</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442213.4698665.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442214.3171635.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>479.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>481.9</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>2.299999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731442217.423212</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731442219.9121094</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442217.423212.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442219.9121094.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>480.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>482.9</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2.699999999999989</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731442220.4197845</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731442220.6464736</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442220.4197845.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442220.6464736.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>485.3</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>485.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731442224.8724778</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731442225.606467</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442224.8724778.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731442225.606467.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>487.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>484.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731442235.2543066</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731442236.9830635</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442235.2543066.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442236.9830635.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>573</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>575.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731442244.123387</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731442245.9939642</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442244.123387.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442245.9939642.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>578.9</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>580.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-1.300000000000068</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731442247.0083282</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731442248.4826245</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442247.0083282.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442248.4826245.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>580.5</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>580.9</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731442249.262093</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731442250.3947983</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442249.262093.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442250.3947983.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>582.9</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>583</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731442250.4107287</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731442253.0589044</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442250.4107287.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442253.0589044.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>583</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>578</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731442253.188075</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731442253.188075.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731442253.188075.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>575.6</v>
       </c>
-      <c r="J54" t="n">
-        <v>575.6</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3101,6 +3591,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3117,6 +3617,12 @@
       <c r="D2" t="n">
         <v>2.692857142857195</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3133,6 +3639,12 @@
       <c r="D3" t="n">
         <v>7.666666666666667</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3149,6 +3661,12 @@
       <c r="D4" t="n">
         <v>0.07333333333333532</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3157,13 +3675,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.000000000000114</v>
+        <v>-3.900000000000091</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6666666666666856</v>
+        <v>-0.6500000000000151</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="6">
@@ -3173,13 +3697,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.600000000000136</v>
+        <v>8.400000000000091</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.720000000000027</v>
+        <v>1.680000000000018</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -3197,6 +3727,12 @@
       <c r="D7" t="n">
         <v>1.539999999999986</v>
       </c>
+      <c r="E7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3213,6 +3749,12 @@
       <c r="D8" t="n">
         <v>0.03499999999999837</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3229,6 +3771,12 @@
       <c r="D9" t="n">
         <v>0.01000000000000512</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3245,6 +3793,12 @@
       <c r="D10" t="n">
         <v>0.9999999999999716</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3261,6 +3815,12 @@
       <c r="D11" t="n">
         <v>0.1166666666666553</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3277,6 +3837,12 @@
       <c r="D12" t="n">
         <v>0.01800000000000068</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3293,6 +3859,12 @@
       <c r="D13" t="n">
         <v>-0.01000000000000512</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3307,6 +3879,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
